--- a/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -172,6 +172,63 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um0404.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you know that there are\ndifferent kinds of [CS:I]Prize Tickets[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It seems that you can win\ndifferent prizes with different tickets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А вы знаете, что есть и другие\nтипы [CS:I]Призовых Билетов[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, что разными билетами\nможно выиграть разные призы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À âú èîàåóå, œóï åòóû é äñôãéå\nóéðú [CS:I]Ðñéèïâúö Áéìåóïâ[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, œóï ñàèîúíé áéìåóàíé\níïçîï âúéãñàóû ñàèîúå ðñéèú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We want to help too.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1317.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we hear anything about\n[CS:N]Grovyle[CR], we\'ll let you know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы узнаем что-нибудь о\n[CS:N]Гровайле[CR], мы дадим вам знать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы тоже хотим помочь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óïçå öïóéí ðïíïœû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú ôèîàåí œóï-îéáôäû ï\n[CS:N]Ãñïâàêìå[CR], íú äàäéí âàí èîàóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the great [CS:N]Dusknoir[CR] and\n[CS:N]Grovyle[CR] were to fight...[K]I would think the battle\nwould be a high-level one.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1607.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если великий [CS:N]Даскнуар[CR] и [CS:N]Гровайл[CR]\nсойдутся в бою...[K] Я думаю, это будет\nожесточённая схватка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé âåìéëéê [CS:N]Äàòëîôàñ[CR] é [CS:N]Ãñïâàêì[CR]\nòïêäôóòÿ â áïý...[K] Ÿ äôíàý, üóï áôäåó\nïçåòóïœæîîàÿ òöâàóëà.</t>
   </si>
 </sst>
 </file>
@@ -550,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,17 +836,101 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
         <v>357</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4">
+        <v>306</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
+        <v>309</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4">
+        <v>284</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6">
+        <v>287</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4">
+        <v>265</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòìé âåìéëéê [CS:N]Äàòëîôàñ[CR] é [CS:N]Ãñïâàêì[CR]\nòïêäôóòÿ â áïý...[K] Ÿ äôíàý, üóï áôäåó\nïçåòóïœæîîàÿ òöâàóëà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck! And please\nbe careful!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи! И прошу, берегите себя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé! É ðñïšô, áåñåãéóå òåáÿ!</t>
   </si>
 </sst>
 </file>
@@ -259,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -300,11 +312,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -325,6 +348,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,21 +946,45 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="8">
         <v>265</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4">
+        <v>246</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -241,6 +241,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôäàœé! É ðñïšô, áåñåãéóå òåáÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2504.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eep! Y-y-yeesh…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0111.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оой! Д-д-дааа...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïê! Ä-ä-äààà...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us3103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? Why is it so empty\nin here?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3120.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Почему здесь почти никого\nнет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Ðïœåíô èäåòû ðïœóé îéëïãï\nîåó?</t>
   </si>
 </sst>
 </file>
@@ -636,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,13 +1009,58 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="4">
+        <v>206</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="4">
+        <v>225</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вурмпл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -271,6 +271,216 @@
   </si>
   <si>
     <t xml:space="preserve"> Œóï? Ðïœåíô èäåòû ðïœóé îéëïãï\nîåó?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eep! I can\'t decide what to do…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our team leader, [CS:N]Swellow[CR]...[K]\nDo you suppose he thinks of me as food?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to believe in my leader,\nbut...[K] Y-y-yeesh…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иии! Я не могу понять, что\nделать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу верить моему лидеру, но...\nД-д-дааа..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ééé! Ÿ îå íïãô ðïîÿóû, œóï\näåìàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô âåñéóû íïåíô ìéäåñô, îï...\nÄ-ä-äààà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Лидер нашей команды, [CS:N]Свеллоу[CR]...[K]\nКак думаете, он хочет меня съесть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ìéäåñ îàšåê ëïíàîäú, [CS:N]Òâåììïô[CR]...[K]\nËàë äôíàåóå, ïî öïœåó íåîÿ òùåòóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What...what a little cutie…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Manaphy[CR] is his name? Such a\ncute little fellow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой... Какой милашка...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Его зовут [CS:N]Манафи[CR]? Какой славный\nмалый.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê... Ëàëïê íéìàšëà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åãï èïâôó [CS:N]Íàîàõé[CR]? Ëàëïê òìàâîúê\níàìúê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh no![K] That cute [CS:N]Manaphy[CR]\'s\ngone missing?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Th-that is worrisome…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О нет![K] Малыш [CS:N]Манафи[CR] пропал?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эт-это вызывает тревогу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï îåó![K] Íàìúš [CS:N]Íàîàõé[CR] ðñïðàì?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üó-üóï âúèúâàåó óñåâïãô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ve found [CS:N]Manaphy[CR]!\nHow splendid!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Oh?[K] Oh no![K] The baby\'s taken\nsick now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы нашли [CS:N]Манафи[CR]! Как здорово!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Что?[K] О, нет![K] Малыш заболел?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú îàšìé [CS:N]Íàîàõé[CR]! Ëàë èäïñïâï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Œóï?[K] Ï, îåó![K] Íàìúš èàáïìåì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]I see...[K] That little [CS:N]Manaphy[CR]\nhad to go back to the sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The way you feel about little\n[CS:N]Manaphy[CR], [hero]...[K] I feel your pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well...[K][hero] and\n[partner]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve decided.[K] I\'m going to work\nup my courage and ask my leader how he thinks\nof me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know if my leader only\nviews me as food...[K] But…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It makes no difference in how\nmuch I trust him as leader.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you, [hero] and\n[partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну...[K] [hero] и\n[partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я решился.[K] Я наберусь смелости\nи спрошу моего лидера, как он ко мне\nотносится.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это не имеет никакого значения в\nтом, насколько я доверяю ему как лидеру.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Понятно...[K] Малышу [CS:N]Манафи[CR]\nнужно было вернуться в море.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> То, что ты чувствуешь о малыше\n[CS:N]Манафи[CR], [hero]...[K] Я понимаю твою\nболь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ðïîÿóîï...[K] Íàìúšô [CS:N]Íàîàõé[CR]\nîôçîï áúìï âåñîôóûòÿ â íïñå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óï, œóï óú œôâòóâôåšû ï íàìúšå\n[CS:N]Íàîàõé[CR], [hero]...[K] Ÿ ðïîéíàý óâïý\náïìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô...[K] [hero] é\n[partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñåšéìòÿ.[K] Ÿ îàáåñôòû òíåìïòóé\né òðñïšô íïåãï ìéäåñà, ëàë ïî ëï íîå\nïóîïòéóòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îå éíååó îéëàëïãï èîàœåîéÿ â\nóïí, îàòëïìûëï ÿ äïâåñÿý åíô ëàë ìéäåñô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю, хочет мой лидер меня\nсъесть или нет...[K] Но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý, öïœåó íïê ìéäåñ íåîÿ\nòùåòóû éìé îåó...[K] Îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам, [hero]\nи [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí, [hero]\né [partner].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eep...[K] Thank you, [CS:N]Swellow[CR]...\nYou are my one and only leader…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m very...[K] So very h-h-happy…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иии...[K] Спасибо тебе, [CS:N]Свеллоу[CR]...\nТы мой единственный и неповторимый лидер...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так...[K] Т-т-так счастлив...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ééé...[K] Òðàòéáï óåáå, [CS:N]Òâåììïô[CR]...\nÓú íïê åäéîòóâåîîúê é îåðïâóïñéíúê ìéäåñ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë...[K] Ó-ó-óàë òœàòóìéâ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m ashamed that I doubted my\nleader even a little…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I\'m glad I had the guts to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You helped me be brave,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you so much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/T01P01A/us2214.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне стыдно, что я сомневался\nв своём лидере...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я рад, что решился всё\nрассказать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Благодаря тебе, [hero],\nя набрался смелости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо тебе за это!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå òóúäîï, œóï ÿ òïíîåâàìòÿ\nâ òâïæí ìéäåñå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ ñàä, œóï ñåšéìòÿ âòæ\nñàòòëàèàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áìàãïäàñÿ óåáå, [hero],\nÿ îàáñàìòÿ òíåìïòóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï óåáå èà üóï!</t>
   </si>
 </sst>
 </file>
@@ -301,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -353,11 +563,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -384,6 +614,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,29 +1284,357 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="14">
         <v>225</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="15" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="4">
+        <v>179</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>182</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
+        <v>185</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>157</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <v>160</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>135</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <v>138</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>113</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>116</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>79</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>85</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>88</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>91</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6">
+        <v>94</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="4">
+        <v>54</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6">
+        <v>57</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="4">
+        <v>18</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>21</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>24</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
